--- a/experiment/excel/non_expert_data1.xlsx
+++ b/experiment/excel/non_expert_data1.xlsx
@@ -469,14 +469,14 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>交易时间</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
       <c r="L1" t="inlineStr">
         <is>
           <t>数量</t>
@@ -484,22 +484,22 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>申报要素</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>卖出限价</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>买入限价</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>申报要素</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>卖出限价</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -550,12 +550,12 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>15:05-15:30</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -609,12 +609,12 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>00:00-15:05,15:30-24:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -668,12 +668,12 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>15:05-15:30</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -727,12 +727,12 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>00:00-15:05,15:30-24:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1022,20 +1022,20 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>开市期间</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>当日15:00仍处于停牌状态</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1085,20 +1085,20 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>开市期间</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>复牌状态</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1148,20 +1148,20 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>开市期间</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>当日15:00仍处于停牌状态</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1211,20 +1211,20 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>开市期间</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>复牌状态</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1274,20 +1274,20 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>开市期间</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>处于停牌状态</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1337,20 +1337,20 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>开市期间</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
         <is>
           <t>处于停牌状态</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1400,20 +1400,20 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>9:15-11:30、13:00-15:30</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>申报未成交、撤销指令经本所交易主机确认</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1463,20 +1463,20 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>0:00-9:15or11:30-13:00or15:30-24:00</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>申报未成交、撤销指令经本所交易主机确认</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1526,20 +1526,20 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>9:15-11:30、13:00-15:30</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>申报未成交、撤销指令经本所交易主机确认</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1589,20 +1589,20 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>0:00-9:15or11:30-13:00or15:30-24:00</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>申报未成交、撤销指令经本所交易主机确认</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1656,13 +1656,13 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
         <is>
           <t>低于收盘价</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -1715,13 +1715,13 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
         <is>
           <t>高于收盘价</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1774,13 +1774,13 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>高于收盘价</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>高于收盘价</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -1833,13 +1833,13 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>低于收盘价</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>成功</t>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>9:15-15:05</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
-        </is>
-      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2187,20 +2187,20 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>15:05-15:30</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2250,20 +2250,20 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>9:15-15:05</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
-        </is>
-      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2313,20 +2313,20 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>15:05-15:30</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>证券代码、证券简称、收盘价、盘后定价交易当日累计成交数量、盘后定价交易当日累计成交金额、买入或卖出的实时未成交申报数量</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
